--- a/api/test/fixtures/import-export/ccf/ccf-assessments.xlsx
+++ b/api/test/fixtures/import-export/ccf/ccf-assessments.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>id</t>
   </si>
@@ -46,6 +46,15 @@
   </si>
   <si>
     <t>assessment_key_3</t>
+  </si>
+  <si>
+    <t>assessment_key_5</t>
+  </si>
+  <si>
+    <t>assessment_key_6</t>
+  </si>
+  <si>
+    <t>assessment_key_7</t>
   </si>
 </sst>
 </file>
@@ -108,8 +117,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -127,15 +140,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -466,7 +483,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -474,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -557,6 +574,57 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>87</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="5">
+        <v>42667.840555555558</v>
+      </c>
+      <c r="E5" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>113</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="5">
+        <v>42682.545659722222</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>139</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="5">
+        <v>42712.627893518518</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
